--- a/biology/Botanique/Achillée/Achillée.xlsx
+++ b/biology/Botanique/Achillée/Achillée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Achill%C3%A9e</t>
+          <t>Achillée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Achillea
-Le genre Achillea (les achillées) Écouter regroupe diverses plantes de la famille des Astéracées (ou Composées) dont la plus connue est l'achillée millefeuille (Achillea millefolium). Le nom du genre correspond au latin achillea, lui-même emprunté au grec akhileios, herbe d'Achille : lorsqu'au siège de Troie, Achille fut mortellement blessé au talon par la flèche de Pâris, la déesse Aphrodite, en larmes, lui conseilla d’utiliser cette plante pour calmer ses souffrances. Ainsi naquit l’Achillée, souveraine contre les blessures à l’arme blanche. Achille a également blessé Télèphe accidentellement, et le guérit à l'aide de l'achillée[1]. Elle est aussi connue sous le nom d'herbe aux coupures[2].
+Le genre Achillea (les achillées) Écouter regroupe diverses plantes de la famille des Astéracées (ou Composées) dont la plus connue est l'achillée millefeuille (Achillea millefolium). Le nom du genre correspond au latin achillea, lui-même emprunté au grec akhileios, herbe d'Achille : lorsqu'au siège de Troie, Achille fut mortellement blessé au talon par la flèche de Pâris, la déesse Aphrodite, en larmes, lui conseilla d’utiliser cette plante pour calmer ses souffrances. Ainsi naquit l’Achillée, souveraine contre les blessures à l’arme blanche. Achille a également blessé Télèphe accidentellement, et le guérit à l'aide de l'achillée. Elle est aussi connue sous le nom d'herbe aux coupures.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Achill%C3%A9e</t>
+          <t>Achillée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Caractéristiques du genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plantes herbacées vivaces à feuilles alternes. Comme pour toutes les composées, ce qu'on appelle communément « fleur » est un capitule. Les capitules des achillées sont formés d'un disque de fleurs tubulées hermaphrodites entourées de fleurs ligulées femelles. Les ligules, presque toujours blanches, sont assez courtes, le plus souvent à trois dents. Très nombreux sur la plante, les capitules sont groupés en inflorescences appelées corymbes. Les fruits sont des akènes.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Achill%C3%A9e</t>
+          <t>Achillée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Achillea ageratum L. - Achillée à feuilles d'agératum
 Achillea atrata L. - Achillée noirâtre.
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Achill%C3%A9e</t>
+          <t>Achillée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,9 +606,11 @@
           <t>Listes des espèces du genre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (20 juin 2013)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (20 juin 2013) :
 Achillea abrotanoides
 Achillea absinthoides
 Achillea acuminata
@@ -754,7 +772,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Achill%C3%A9e</t>
+          <t>Achillée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -772,9 +790,11 @@
           <t>Langage des fleurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le langage des fleurs, l'achillée symbolise la guerre, en conformité avec l'origine de son nom[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, l'achillée symbolise la guerre, en conformité avec l'origine de son nom.
 </t>
         </is>
       </c>
